--- a/biology/Zoologie/Gorfou_du_Fiordland/Gorfou_du_Fiordland.xlsx
+++ b/biology/Zoologie/Gorfou_du_Fiordland/Gorfou_du_Fiordland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eudyptes pachyrhynchus
 Le Gorfou du Fiordland (Eudyptes pachyrhynchus) est une espèce d'oiseaux de la famille des Sphenisciformes vivants sur les côtes sud de Nouvelle-Zélande et sur l'île Stewart. Il passe 75 % de son temps en mer, le reste du temps il revient sur terre pour se reproduire.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gorfou du Fiorland mesure entre 50 et 55 cm et pèse entre 2 et 5 kg selon la saison. Il porte un plumage noir sur le dos et blanc sur le ventre. Il possède deux bandes de plumes jaune clair partant au-dessus des yeux et allant vers l'arrière de la tête. Il n'existe pas de différence notable entre la femelle et le mâle.
 </t>
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Carte représentant les zones de reproduction et d'habitation du manchot Gorfou du Fiorland.
 En vert, les zones où vit le gorfou du Fiordland.
@@ -578,7 +594,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une unique étude semble indiquer que le gorfou du Fiordland se nourrit de 85 % de calmars, et le reste de crustacés et de poissons. Le fait le plus marquant est  que ce manchot passe les mois d'hivers seul en mer (75 % de l'année). Vers juillet, il revient vers les côtes pour se reproduire. Ce manchot semble être un animal nocturne.
 </t>
@@ -609,7 +627,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cycle de reproduction commence vers juin/juillet. Les mâles arrivent sur leurs lieux de reproduction deux semaines avant les femelles. En juillet la femelle pond deux œufs vert pâle. Comme les Gorfous Sauteurs le premier œuf pondu n'est pas viable (de très rares cas de réussite).
 Pendant 30 à 36 jours l’œuf est couvé par le mâle et la femelle pendant des cycles de 5 à 12 jours. Après l'éclosion, le mâle reste 2 à 3 semaines encore à couver et à garder le nid, tandis que la femelle fait des aller-retour entre la mer et le nid pour nourrir le poussin par régurgitation.
